--- a/src/test/resources/inputDatas.xlsx
+++ b/src/test/resources/inputDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Guru99Bank\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57555AEE-C699-4243-B340-ACCC661140FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEF27D-E30E-4575-A2A3-AB6A36289B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B4033A8-279A-4830-982C-2EEC5F357B4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8B4033A8-279A-4830-982C-2EEC5F357B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>manoj01@gmail.com</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>77758</t>
+  </si>
+  <si>
+    <t>Kote</t>
   </si>
 </sst>
 </file>
@@ -457,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6CFC96-9A60-4614-93F9-BAA6095837AD}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,25 +557,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F7A36-2E69-48E9-AF36-D4669EAC43A5}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3">
-        <v>98980678123</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
